--- a/inst/gui/default_settings.xlsx
+++ b/inst/gui/default_settings.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="740" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28100" windowHeight="17340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="default_settings.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="global" sheetId="1" r:id="rId1"/>
+    <sheet name="parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
   <si>
     <t>Variable</t>
   </si>
@@ -54,21 +55,9 @@
     <t>cutoff_N_max</t>
   </si>
   <si>
-    <t>character</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>hydrogen|carbon|nitrogen</t>
-  </si>
-  <si>
     <t>Possible</t>
   </si>
   <si>
@@ -84,9 +73,6 @@
     <t>cutoff_C_max</t>
   </si>
   <si>
-    <t>default element</t>
-  </si>
-  <si>
     <t xml:space="preserve">default lower intensity cutoff (C) </t>
   </si>
   <si>
@@ -97,13 +83,289 @@
   </si>
   <si>
     <t>default upper intensity cutoff (N)</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Ar_split_in</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>Ar_split_closed</t>
+  </si>
+  <si>
+    <t>H2O_split_closed</t>
+  </si>
+  <si>
+    <t>H2O_split_in</t>
+  </si>
+  <si>
+    <t>Argon split out</t>
+  </si>
+  <si>
+    <t>Argon split in</t>
+  </si>
+  <si>
+    <t>Water split out</t>
+  </si>
+  <si>
+    <t>Water split in</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Ar peak centered?</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Switch to Ar configuration and peak center</t>
+  </si>
+  <si>
+    <t>Ar_centered</t>
+  </si>
+  <si>
+    <t>H2O_centered</t>
+  </si>
+  <si>
+    <t>Water peak centered?</t>
+  </si>
+  <si>
+    <t>Switch to water configration and peak center</t>
+  </si>
+  <si>
+    <t>CO2_centered</t>
+  </si>
+  <si>
+    <t>CO2 peak centered?</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>m44_intensity</t>
+  </si>
+  <si>
+    <t>Mass 44 cup intensity</t>
+  </si>
+  <si>
+    <t>Intensity on the first cup (mass 44)</t>
+  </si>
+  <si>
+    <t>Turn on CO2 ref (dil. ?), switch to CO2 configuration and peak center</t>
+  </si>
+  <si>
+    <t>m45_intensity</t>
+  </si>
+  <si>
+    <t>m46_intensity</t>
+  </si>
+  <si>
+    <t>Mass 45 cup intensity</t>
+  </si>
+  <si>
+    <t>Mass 46 cup intensity</t>
+  </si>
+  <si>
+    <t>Intensity on the second cup (mass 45)</t>
+  </si>
+  <si>
+    <t>Intensity on the third cup (mass 46)</t>
+  </si>
+  <si>
+    <t>Mass 2 cup intensity</t>
+  </si>
+  <si>
+    <t>Mass 3 cup intensity</t>
+  </si>
+  <si>
+    <t>H2_centered</t>
+  </si>
+  <si>
+    <t>H2 peak centered?</t>
+  </si>
+  <si>
+    <t>Turn on H2 ref (dil. ?), switch to H configuration and peak center</t>
+  </si>
+  <si>
+    <t>combustion_mode</t>
+  </si>
+  <si>
+    <t>m2_intensity</t>
+  </si>
+  <si>
+    <t>m3_intensity</t>
+  </si>
+  <si>
+    <t>Isolink in combustion mode?</t>
+  </si>
+  <si>
+    <t>Make sure Isolink is in combustion (blue) mode</t>
+  </si>
+  <si>
+    <t>carbon|nitrogen</t>
+  </si>
+  <si>
+    <t>combustion_temp</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>pyrolysis_mode</t>
+  </si>
+  <si>
+    <t>pyrolysis_temp</t>
+  </si>
+  <si>
+    <t>Isolink in pyrolysis mode?</t>
+  </si>
+  <si>
+    <t>Make sure Isolink is in pyrolysis (red) mode</t>
+  </si>
+  <si>
+    <t>Temperature of combustion reactor</t>
+  </si>
+  <si>
+    <t>Temperature of pyrolysis reactor</t>
+  </si>
+  <si>
+    <t>The temperature of the combustion reactor for context on the backgrounds</t>
+  </si>
+  <si>
+    <t>The temperature of the pyrolysis reactor for context on the backgrounds</t>
+  </si>
+  <si>
+    <t>full_scan</t>
+  </si>
+  <si>
+    <t>Run a full scan (slow magnet from 3000 to 9000 by steps of 2), split in, BF off</t>
+  </si>
+  <si>
+    <t>Intensity on middle cup at mass 40 with split out, BF on</t>
+  </si>
+  <si>
+    <t>Intensity on middle cup at mass 40 with split in, BF off</t>
+  </si>
+  <si>
+    <t>Intensity on middle cup at mass 18 with split out, BF on</t>
+  </si>
+  <si>
+    <t>Intensity on middle cup at mass 18 with split in, BF off</t>
+  </si>
+  <si>
+    <t>Full scan complete and uploaded?</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>N2_centered</t>
+  </si>
+  <si>
+    <t>m28_intensity</t>
+  </si>
+  <si>
+    <t>m29_intensity</t>
+  </si>
+  <si>
+    <t>Mass 28 cup intensity</t>
+  </si>
+  <si>
+    <t>Mass 29 cup intensity</t>
+  </si>
+  <si>
+    <t>Intensity on the first cup (mass 28)</t>
+  </si>
+  <si>
+    <t>Intensity on the second cup (mass 29)</t>
+  </si>
+  <si>
+    <t>Turn on N2 ref (dil. ?), switch to N2 configuration and peak center</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>High voltage</t>
+  </si>
+  <si>
+    <t>kV</t>
+  </si>
+  <si>
+    <t>Note the high voltage setting</t>
+  </si>
+  <si>
+    <t>mbar</t>
+  </si>
+  <si>
+    <t>Forevacuum (FV)</t>
+  </si>
+  <si>
+    <t>What is the fore vacuum pressure?</t>
+  </si>
+  <si>
+    <t>Fvac</t>
+  </si>
+  <si>
+    <t>Hvac</t>
+  </si>
+  <si>
+    <t>High vacuum (Vac)</t>
+  </si>
+  <si>
+    <t>What is the high vacuum pressure?</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>Trap current</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>Box current</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>deflection</t>
+  </si>
+  <si>
+    <t>Deflection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +389,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -157,21 +427,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -517,7 +909,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -538,44 +930,44 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
         <v>17</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="D3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -589,16 +981,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -612,16 +1004,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -633,28 +1025,645 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="56.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inst/gui/default_settings.xlsx
+++ b/inst/gui/default_settings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="116">
   <si>
     <t>Variable</t>
   </si>
@@ -274,9 +274,6 @@
     <t>Intensity on middle cup at mass 18 with split in, BF off</t>
   </si>
   <si>
-    <t>Full scan complete and uploaded?</t>
-  </si>
-  <si>
     <t>nitrogen</t>
   </si>
   <si>
@@ -359,6 +356,18 @@
   </si>
   <si>
     <t>Deflection</t>
+  </si>
+  <si>
+    <t>Full scan complete and file selected?</t>
+  </si>
+  <si>
+    <t>peak_shape</t>
+  </si>
+  <si>
+    <t>Peak shape scan complete &amp; selected?</t>
+  </si>
+  <si>
+    <t>Run a peak shape scan (from ? To ?), split out, BF on</t>
   </si>
 </sst>
 </file>
@@ -415,8 +424,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -493,7 +508,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -529,6 +544,9 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -564,6 +582,9 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1038,17 +1059,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D25" sqref="D25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="56.83203125" bestFit="1" customWidth="1"/>
@@ -1176,7 +1197,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>37</v>
@@ -1479,10 +1500,10 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -1491,7 +1512,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1499,13 +1520,13 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -1514,7 +1535,7 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1522,13 +1543,13 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
@@ -1537,133 +1558,193 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>105</v>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inst/gui/default_settings.xlsx
+++ b/inst/gui/default_settings.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28100" windowHeight="17340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
-    <sheet name="parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="modes" sheetId="3" r:id="rId2"/>
+    <sheet name="parameters" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
   <si>
     <t>Variable</t>
   </si>
@@ -40,21 +41,9 @@
     <t>Editable</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>cutoff_N_min</t>
-  </si>
-  <si>
-    <t>cutoff_N_max</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -64,27 +53,6 @@
     <t>carbon</t>
   </si>
   <si>
-    <t>linearity</t>
-  </si>
-  <si>
-    <t>cutoff_C_min</t>
-  </si>
-  <si>
-    <t>cutoff_C_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default lower intensity cutoff (C) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">default upper intensity cutoff (C) </t>
-  </si>
-  <si>
-    <t>default lower intensity cutoff (N)</t>
-  </si>
-  <si>
-    <t>default upper intensity cutoff (N)</t>
-  </si>
-  <si>
     <t>hydrogen</t>
   </si>
   <si>
@@ -124,9 +92,6 @@
     <t>Water split in</t>
   </si>
   <si>
-    <t>Element</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -352,12 +317,6 @@
     <t>mA</t>
   </si>
   <si>
-    <t>deflection</t>
-  </si>
-  <si>
-    <t>Deflection</t>
-  </si>
-  <si>
     <t>Full scan complete and file selected?</t>
   </si>
   <si>
@@ -368,6 +327,12 @@
   </si>
   <si>
     <t>Run a peak shape scan (from ? To ?), split out, BF on</t>
+  </si>
+  <si>
+    <t>carbon|nitrogen|hydrogen</t>
+  </si>
+  <si>
+    <t>Mode</t>
   </si>
 </sst>
 </file>
@@ -424,8 +389,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,7 +481,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -547,6 +520,10 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -585,6 +562,10 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -914,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -930,7 +911,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -951,98 +932,6 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1059,15 +948,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
@@ -1077,16 +1006,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1095,656 +1024,640 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
